--- a/background fits.xlsx
+++ b/background fits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB6AE4-FFCE-4057-A83F-D99418C20C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52926C2B-C6C0-41F8-B134-F8376384EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8687EB4D-EDDB-4A83-A407-459DAA73C209}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>fit</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>pymca snip 60 + linear</t>
+  </si>
+  <si>
+    <t>pymca snip 60 + voigt</t>
   </si>
 </sst>
 </file>
@@ -201,9 +204,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>bruker</c:v>
                 </c:pt>
@@ -220,12 +223,15 @@
                   <c:v>pymca snip 60</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>pymca snip 60 + voigt</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>pymca snip 60 + linear</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>pymca strip</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>pymca polynomial</c:v>
                 </c:pt>
               </c:strCache>
@@ -233,10 +239,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
@@ -253,12 +259,15 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
@@ -285,9 +294,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>bruker</c:v>
                 </c:pt>
@@ -304,12 +313,15 @@
                   <c:v>pymca snip 60</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>pymca snip 60 + voigt</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>pymca snip 60 + linear</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>pymca strip</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>pymca polynomial</c:v>
                 </c:pt>
               </c:strCache>
@@ -317,10 +329,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>144</c:v>
                 </c:pt>
@@ -337,12 +349,15 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
@@ -623,9 +638,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>bruker</c:v>
                 </c:pt>
@@ -642,12 +657,15 @@
                   <c:v>pymca snip 60</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>pymca snip 60 + voigt</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>pymca snip 60 + linear</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>pymca strip</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>pymca polynomial</c:v>
                 </c:pt>
               </c:strCache>
@@ -655,10 +673,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.976391744726221E-3</c:v>
                 </c:pt>
@@ -675,12 +693,15 @@
                   <c:v>1.0849783004339914E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0909596275449934E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.2660685394911017E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.101290684624018E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9.0477603085137945E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -707,9 +728,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>bruker</c:v>
                 </c:pt>
@@ -726,12 +747,15 @@
                   <c:v>pymca snip 60</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>pymca snip 60 + voigt</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>pymca snip 60 + linear</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>pymca strip</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>pymca polynomial</c:v>
                 </c:pt>
               </c:strCache>
@@ -739,10 +763,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0722263588979895E-2</c:v>
                 </c:pt>
@@ -759,12 +783,15 @@
                   <c:v>1.0617892862035896E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0798696006519967E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.0813148788927335E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.1643835616438357E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9.883720930232558E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1045,9 +1072,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>pymca snip 30</c:v>
                 </c:pt>
@@ -1058,12 +1085,15 @@
                   <c:v>pymca snip 60</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>pymca snip 60 + voigt</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>pymca snip 60 + linear</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>pymca strip</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>pymca polynomial</c:v>
                 </c:pt>
               </c:strCache>
@@ -1071,34 +1101,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$9</c:f>
+              <c:f>Sheet1!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.74407436698836604</c:v>
+                  <c:v>22.5067316955402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79917448692911397</c:v>
+                  <c:v>22.784982395769401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84952629638276</c:v>
+                  <c:v>23.1343224921646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60423514314071602</c:v>
+                  <c:v>34.598093692483502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85146247533113795</c:v>
+                  <c:v>21.649079882580999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67567871765629295</c:v>
+                  <c:v>23.2126055706836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.130291938971101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DAB-48DA-9616-C809BD1DD675}"/>
+              <c16:uniqueId val="{00000000-7E56-445B-94B7-AB19432D314F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,11 +1145,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="650851344"/>
-        <c:axId val="650853312"/>
+        <c:axId val="673496080"/>
+        <c:axId val="673844152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="650851344"/>
+        <c:axId val="673496080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650853312"/>
+        <c:crossAx val="673844152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1167,9 +1200,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="650853312"/>
+        <c:axId val="673844152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1218,7 +1253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650851344"/>
+        <c:crossAx val="673496080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3041,22 +3076,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E358A23E-FE4D-2797-774C-814D04CF4B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95447D5B-ED68-1506-2D46-9FD8BDC2F1A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,15 +3409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0147D8F-A5DC-4823-B6F6-E16B3E6D23B7}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O28" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -3469,9 +3504,6 @@
       <c r="F4">
         <v>22.5067316955402</v>
       </c>
-      <c r="G4">
-        <v>0.74407436698836604</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3494,9 +3526,6 @@
       <c r="F5">
         <v>22.784982395769401</v>
       </c>
-      <c r="G5">
-        <v>0.79917448692911397</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3519,83 +3548,93 @@
       <c r="F6">
         <v>23.1343224921646</v>
       </c>
-      <c r="G6">
-        <v>0.84952629638276</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D7">
-        <f>126/13598</f>
-        <v>9.2660685394911017E-3</v>
+        <f>157/14391</f>
+        <v>1.0909596275449934E-2</v>
       </c>
       <c r="E7">
-        <f>150/13872</f>
-        <v>1.0813148788927335E-2</v>
+        <f>159/14724</f>
+        <v>1.0798696006519967E-2</v>
       </c>
       <c r="F7">
-        <v>21.649079882580999</v>
-      </c>
-      <c r="G7">
-        <v>0.60423514314071602</v>
+        <v>34.598093692483502</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <f>157/14256</f>
-        <v>1.101290684624018E-2</v>
+        <f>126/13598</f>
+        <v>9.2660685394911017E-3</v>
       </c>
       <c r="E8">
-        <f>170/14600</f>
-        <v>1.1643835616438357E-2</v>
+        <f>150/13872</f>
+        <v>1.0813148788927335E-2</v>
       </c>
       <c r="F8">
-        <v>23.2126055706836</v>
-      </c>
-      <c r="G8">
-        <v>0.85146247533113795</v>
+        <v>21.649079882580999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>157</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <f>157/14256</f>
+        <v>1.101290684624018E-2</v>
+      </c>
+      <c r="E9">
+        <f>170/14600</f>
+        <v>1.1643835616438357E-2</v>
+      </c>
+      <c r="F9">
+        <v>23.2126055706836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>122</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>136</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>122/13484</f>
         <v>9.0477603085137945E-3</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>136/13760</f>
         <v>9.883720930232558E-3</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>22.130291938971101</v>
-      </c>
-      <c r="G9">
-        <v>0.67567871765629295</v>
       </c>
     </row>
   </sheetData>
